--- a/data/trans_orig/P1425-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>27597</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18385</v>
+        <v>19312</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39626</v>
+        <v>40066</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02674871044973065</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01781931165246316</v>
+        <v>0.01871825891357476</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03840753668061403</v>
+        <v>0.03883384579192614</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -764,19 +764,19 @@
         <v>24688</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16042</v>
+        <v>15081</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37829</v>
+        <v>36003</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0187726039998101</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01219846118206794</v>
+        <v>0.01146746657465109</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02876472691383303</v>
+        <v>0.02737668983659434</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -785,19 +785,19 @@
         <v>52285</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38412</v>
+        <v>39922</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67895</v>
+        <v>68058</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02227908380916334</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01636753813676652</v>
+        <v>0.01701105905827378</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02893040263529557</v>
+        <v>0.02900002010863151</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>1004126</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>992097</v>
+        <v>991657</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1013338</v>
+        <v>1012411</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9732512895502693</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9615924633193861</v>
+        <v>0.9611661542080745</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9821806883475369</v>
+        <v>0.9812817410864255</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1267</v>
@@ -835,19 +835,19 @@
         <v>1290425</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1277284</v>
+        <v>1279110</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1299071</v>
+        <v>1300032</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9812273960001899</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9712352730861671</v>
+        <v>0.9726233101634056</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9878015388179321</v>
+        <v>0.988532533425349</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2277</v>
@@ -856,19 +856,19 @@
         <v>2294550</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2278940</v>
+        <v>2278777</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2308423</v>
+        <v>2306913</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9777209161908367</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9710695973647044</v>
+        <v>0.9709999798913685</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9836324618632335</v>
+        <v>0.9829889409417263</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>8488</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3854</v>
+        <v>3983</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16380</v>
+        <v>17197</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005012541133726731</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002275852644588219</v>
+        <v>0.002352005548792483</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009672846064053336</v>
+        <v>0.01015529578278849</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -981,19 +981,19 @@
         <v>7301</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3030</v>
+        <v>3075</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14499</v>
+        <v>14552</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004598662357482463</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001908693310479914</v>
+        <v>0.001936497058965772</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009132162197348364</v>
+        <v>0.009165348637727245</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -1002,19 +1002,19 @@
         <v>15789</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8875</v>
+        <v>9072</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24915</v>
+        <v>25811</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004812270778675604</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002704990262141725</v>
+        <v>0.002764958551143717</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007593663013266075</v>
+        <v>0.007866730706344612</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1684925</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1677033</v>
+        <v>1676216</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1689559</v>
+        <v>1689430</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9949874588662733</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9903271539359471</v>
+        <v>0.9898447042172115</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9977241473554118</v>
+        <v>0.9976479944512076</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1547</v>
@@ -1052,19 +1052,19 @@
         <v>1580372</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1573174</v>
+        <v>1573121</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1584643</v>
+        <v>1584598</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9954013376425176</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9908678378026515</v>
+        <v>0.9908346513622727</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9980913066895201</v>
+        <v>0.9980635029410342</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3188</v>
@@ -1073,19 +1073,19 @@
         <v>3265297</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3256171</v>
+        <v>3255275</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3272211</v>
+        <v>3272014</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9951877292213244</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9924063369867349</v>
+        <v>0.9921332692936553</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9972950097378589</v>
+        <v>0.9972350414488563</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>4647</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1046</v>
+        <v>1802</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11154</v>
+        <v>10697</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008426949079905811</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001897194553550106</v>
+        <v>0.003267712299843249</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02022789891589634</v>
+        <v>0.01939881429157474</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1198,19 +1198,19 @@
         <v>4859</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1871</v>
+        <v>1879</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10822</v>
+        <v>11397</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0101983177363048</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003926336991456712</v>
+        <v>0.003944745442595462</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02271596767822077</v>
+        <v>0.02392328558740908</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1219,19 +1219,19 @@
         <v>9505</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4798</v>
+        <v>4720</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17083</v>
+        <v>16984</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009248008206865251</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004667755140148392</v>
+        <v>0.004591919208299445</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01662108622485657</v>
+        <v>0.01652395970953728</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>546761</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>540254</v>
+        <v>540711</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>550362</v>
+        <v>549606</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9915730509200942</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9797721010841037</v>
+        <v>0.980601185708425</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9981028054464499</v>
+        <v>0.9967322877001568</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>447</v>
@@ -1269,19 +1269,19 @@
         <v>471553</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>465590</v>
+        <v>465015</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>474541</v>
+        <v>474533</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9898016822636952</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9772840323217791</v>
+        <v>0.9760767144125906</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9960736630085433</v>
+        <v>0.9960552545574045</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>969</v>
@@ -1290,19 +1290,19 @@
         <v>1018315</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1010737</v>
+        <v>1010836</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1023022</v>
+        <v>1023100</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9907519917931348</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9833789137751434</v>
+        <v>0.9834760402904628</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9953322448598516</v>
+        <v>0.9954080807917005</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>40732</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29233</v>
+        <v>28670</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53886</v>
+        <v>55242</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01243146754218791</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008921989561051922</v>
+        <v>0.008750156587797455</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01644592479024987</v>
+        <v>0.01685990507417724</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -1415,19 +1415,19 @@
         <v>36848</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26212</v>
+        <v>26306</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50600</v>
+        <v>51159</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01090432271120994</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007756772408797242</v>
+        <v>0.007784604966452562</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01497404823056385</v>
+        <v>0.01513946832489492</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -1436,19 +1436,19 @@
         <v>77580</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61686</v>
+        <v>59672</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96461</v>
+        <v>96121</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01165611826258588</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009268145434076116</v>
+        <v>0.008965457726594442</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01449284327209341</v>
+        <v>0.01444181458804981</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>3235811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3222657</v>
+        <v>3221301</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3247310</v>
+        <v>3247873</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9875685324578121</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9835540752097501</v>
+        <v>0.9831400949258225</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9910780104389482</v>
+        <v>0.9912498434122026</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3261</v>
@@ -1486,19 +1486,19 @@
         <v>3342349</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3328597</v>
+        <v>3328038</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3352985</v>
+        <v>3352891</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9890956772887901</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9850259517694362</v>
+        <v>0.9848605316751051</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9922432275912029</v>
+        <v>0.9922153950335474</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6434</v>
@@ -1507,19 +1507,19 @@
         <v>6578161</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6559280</v>
+        <v>6559620</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6594055</v>
+        <v>6596069</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9883438817374142</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9855071567279063</v>
+        <v>0.9855581854119497</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9907318545659238</v>
+        <v>0.9910345422734055</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>19467</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12271</v>
+        <v>11438</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32613</v>
+        <v>32463</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01997367423100788</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01259040786971185</v>
+        <v>0.01173558166749789</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03346121489218353</v>
+        <v>0.03330794263739432</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -1871,19 +1871,19 @@
         <v>13783</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7393</v>
+        <v>7521</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22945</v>
+        <v>23560</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0103025681096614</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005526464919096652</v>
+        <v>0.005622032539660104</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01715169308891359</v>
+        <v>0.01761105398690354</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -1892,19 +1892,19 @@
         <v>33250</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23012</v>
+        <v>22191</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47411</v>
+        <v>46609</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01437872913058696</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009951409092701447</v>
+        <v>0.009596229571305185</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0205026875243017</v>
+        <v>0.02015561036710706</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>955176</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>942030</v>
+        <v>942180</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>962372</v>
+        <v>963205</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9800263257689922</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9665387851078164</v>
+        <v>0.9666920573626051</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9874095921302882</v>
+        <v>0.9882644183325019</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1234</v>
@@ -1942,19 +1942,19 @@
         <v>1324014</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1314852</v>
+        <v>1314237</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1330404</v>
+        <v>1330276</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9896974318903387</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9828483069110863</v>
+        <v>0.9823889460130965</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9944735350809033</v>
+        <v>0.9943779674603399</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2125</v>
@@ -1963,19 +1963,19 @@
         <v>2279190</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2265029</v>
+        <v>2265831</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2289428</v>
+        <v>2290249</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9856212708694131</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9794973124756984</v>
+        <v>0.979844389632893</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9900485909072987</v>
+        <v>0.9904037704286948</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>8148</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3898</v>
+        <v>3905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18201</v>
+        <v>17066</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004148940906639859</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001984943992787238</v>
+        <v>0.001988080899670812</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.00926732271740748</v>
+        <v>0.00868953325761572</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2088,19 +2088,19 @@
         <v>4835</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1048</v>
+        <v>1151</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12247</v>
+        <v>13177</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002755675561794547</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0005974376354259413</v>
+        <v>0.0006561013161161377</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.006980148422818591</v>
+        <v>0.007510246407634559</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -2109,19 +2109,19 @@
         <v>12983</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6898</v>
+        <v>6336</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23572</v>
+        <v>22902</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003491530726087482</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001854943330904419</v>
+        <v>0.001704006736999833</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006338940596897767</v>
+        <v>0.006158837475011879</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>1955809</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1945756</v>
+        <v>1946891</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1960059</v>
+        <v>1960052</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9958510590933601</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9907326772825925</v>
+        <v>0.9913104667423858</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9980150560072127</v>
+        <v>0.9980119191003293</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1629</v>
@@ -2159,19 +2159,19 @@
         <v>1749757</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1742345</v>
+        <v>1741415</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1753544</v>
+        <v>1753441</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9972443244382054</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.993019851577181</v>
+        <v>0.9924897535923645</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.999402562364574</v>
+        <v>0.9993438986838838</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3478</v>
@@ -2180,19 +2180,19 @@
         <v>3705566</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3694977</v>
+        <v>3695647</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3711651</v>
+        <v>3712213</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9965084692739126</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9936610594031022</v>
+        <v>0.9938411625249882</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9981450566690956</v>
+        <v>0.9982959932630002</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>5175</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1835</v>
+        <v>1147</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14116</v>
+        <v>14021</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0107542834514314</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003813554734868738</v>
+        <v>0.002383305607773679</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02933536951531895</v>
+        <v>0.02913864426412174</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8868</v>
+        <v>9737</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003881295545065911</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01933625914179596</v>
+        <v>0.02123048095619486</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -2326,19 +2326,19 @@
         <v>6955</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2260</v>
+        <v>2076</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16298</v>
+        <v>17520</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007400246519676558</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002405007210701938</v>
+        <v>0.002208744387398376</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01734177590092028</v>
+        <v>0.01864233374089604</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>476006</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>467065</v>
+        <v>467160</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>479346</v>
+        <v>480034</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9892457165485686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9706646304846811</v>
+        <v>0.9708613557358781</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9961864452651312</v>
+        <v>0.9976166943922263</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>411</v>
@@ -2376,7 +2376,7 @@
         <v>456851</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>449763</v>
+        <v>448894</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>458631</v>
@@ -2385,7 +2385,7 @@
         <v>0.9961187044549341</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9806637408582042</v>
+        <v>0.9787695190438045</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2397,19 +2397,19 @@
         <v>932858</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>923515</v>
+        <v>922293</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>937553</v>
+        <v>937737</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9925997534803235</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9826582240990801</v>
+        <v>0.9813576662591046</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9975949927892981</v>
+        <v>0.9977912556126017</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>32790</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21376</v>
+        <v>21619</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48391</v>
+        <v>47677</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009588420601691905</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006250664556086855</v>
+        <v>0.006321671217695141</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01415022796358929</v>
+        <v>0.01394159099548813</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -2522,19 +2522,19 @@
         <v>20398</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12877</v>
+        <v>12290</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32235</v>
+        <v>32129</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005744240021971029</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003626294538277189</v>
+        <v>0.003461016105366813</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009077590368829623</v>
+        <v>0.009047729142055184</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -2543,19 +2543,19 @@
         <v>53188</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37935</v>
+        <v>38148</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69220</v>
+        <v>69520</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007630143528289435</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005442045121251557</v>
+        <v>0.005472553664699014</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009930035087891203</v>
+        <v>0.009973018170504905</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>3386992</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3371391</v>
+        <v>3372105</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3398406</v>
+        <v>3398163</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.990411579398308</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9858497720364108</v>
+        <v>0.9860584090045122</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9937493354439131</v>
+        <v>0.9936783287823051</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3274</v>
@@ -2593,19 +2593,19 @@
         <v>3530622</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3518785</v>
+        <v>3518891</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3538143</v>
+        <v>3538730</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.994255759978029</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9909224096311704</v>
+        <v>0.9909522708579446</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9963737054617225</v>
+        <v>0.9965389838946332</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6448</v>
@@ -2614,19 +2614,19 @@
         <v>6917613</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6901581</v>
+        <v>6901281</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6932866</v>
+        <v>6932653</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9923698564717106</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9900699649121089</v>
+        <v>0.990026981829495</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9945579548787485</v>
+        <v>0.994527446335301</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>10642</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5399</v>
+        <v>5894</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18841</v>
+        <v>18683</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01410792745545675</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007156782160570876</v>
+        <v>0.00781404255232371</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02497630076906358</v>
+        <v>0.02476724852165292</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2978,19 +2978,19 @@
         <v>17650</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10013</v>
+        <v>9670</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28696</v>
+        <v>27668</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01774466512843301</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01006654954835333</v>
+        <v>0.00972237522165348</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02884991223390632</v>
+        <v>0.02781703773448062</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -2999,19 +2999,19 @@
         <v>28292</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18895</v>
+        <v>18631</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41788</v>
+        <v>42508</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01617614000368301</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01080321870200069</v>
+        <v>0.01065247184279742</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02389222017356488</v>
+        <v>0.02430422903986803</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>743705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>735506</v>
+        <v>735664</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>748948</v>
+        <v>748453</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9858920725445433</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9750236992309365</v>
+        <v>0.9752327514783471</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9928432178394291</v>
+        <v>0.9921859574476762</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>877</v>
@@ -3049,19 +3049,19 @@
         <v>977010</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>965964</v>
+        <v>966992</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>984647</v>
+        <v>984990</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.982255334871567</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9711500877660937</v>
+        <v>0.9721829622655195</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9899334504516468</v>
+        <v>0.9902776247783466</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1628</v>
@@ -3070,19 +3070,19 @@
         <v>1720715</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1707219</v>
+        <v>1706499</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1730112</v>
+        <v>1730376</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9838238599963169</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9761077798264352</v>
+        <v>0.9756957709601322</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9891967812979995</v>
+        <v>0.9893475281572027</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>18133</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11114</v>
+        <v>11221</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28363</v>
+        <v>28057</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008733037696340443</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005352491708249994</v>
+        <v>0.005404068666119634</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01366003659858989</v>
+        <v>0.01351231559603509</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -3195,19 +3195,19 @@
         <v>14082</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7428</v>
+        <v>7759</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24651</v>
+        <v>24323</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007082440302245674</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003735658162981159</v>
+        <v>0.003902160210987697</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01239827712725729</v>
+        <v>0.01223284496283652</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -3216,19 +3216,19 @@
         <v>32215</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22845</v>
+        <v>22779</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46080</v>
+        <v>46187</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007925623866933891</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005620451787022042</v>
+        <v>0.005604064196833432</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01133670116935041</v>
+        <v>0.01136301061616254</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>2058252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2048022</v>
+        <v>2048328</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2065271</v>
+        <v>2065164</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9912669623036595</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9863399634014102</v>
+        <v>0.9864876844039648</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.99464750829175</v>
+        <v>0.9945959313338804</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1896</v>
@@ -3266,19 +3266,19 @@
         <v>1974218</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1963649</v>
+        <v>1963977</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1980872</v>
+        <v>1980541</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9929175596977543</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9876017228727431</v>
+        <v>0.9877671550371635</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9962643418370192</v>
+        <v>0.9960978397890123</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3830</v>
@@ -3287,19 +3287,19 @@
         <v>4032470</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4018605</v>
+        <v>4018498</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4041840</v>
+        <v>4041906</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9920743761330661</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9886632988306496</v>
+        <v>0.9886369893838373</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.994379548212978</v>
+        <v>0.9943959358031665</v>
       </c>
     </row>
     <row r="9">
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9176</v>
+        <v>9786</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005039181625563349</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01677826880591522</v>
+        <v>0.0178947021693776</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7157</v>
+        <v>6393</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003685519432155258</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01303259909967324</v>
+        <v>0.01164129350919746</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -3433,19 +3433,19 @@
         <v>4780</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>990</v>
+        <v>1768</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11479</v>
+        <v>12465</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004360958524083837</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0009035510488915125</v>
+        <v>0.001612682326384804</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01047331112529767</v>
+        <v>0.01137315343156024</v>
       </c>
     </row>
     <row r="11">
@@ -3462,7 +3462,7 @@
         <v>544130</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>537710</v>
+        <v>537100</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>546886</v>
@@ -3471,7 +3471,7 @@
         <v>0.9949608183744366</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9832217311940847</v>
+        <v>0.9821052978306224</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3483,7 +3483,7 @@
         <v>547116</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>541983</v>
+        <v>542747</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>549140</v>
@@ -3492,7 +3492,7 @@
         <v>0.9963144805678448</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9869674009003268</v>
+        <v>0.9883587064908032</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3504,19 +3504,19 @@
         <v>1091247</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1084548</v>
+        <v>1083562</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1095037</v>
+        <v>1094259</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9956390414759162</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9895266888747023</v>
+        <v>0.9886268465684396</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9990964489511085</v>
+        <v>0.9983873176736151</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>31531</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21648</v>
+        <v>21944</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45479</v>
+        <v>42799</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009335359161654965</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006409139543856538</v>
+        <v>0.006497014693209468</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01346489603687838</v>
+        <v>0.01267122573254368</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -3629,19 +3629,19 @@
         <v>33756</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23458</v>
+        <v>22826</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48864</v>
+        <v>47279</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009556861387998737</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006641299773488902</v>
+        <v>0.006462529777069403</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01383419961631457</v>
+        <v>0.01338545300983385</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -3650,19 +3650,19 @@
         <v>65287</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49515</v>
+        <v>50823</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81837</v>
+        <v>84389</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009448586370609162</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00716600254349866</v>
+        <v>0.007355328484484374</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01184368723540139</v>
+        <v>0.01221311129546982</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>3346087</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3332139</v>
+        <v>3334819</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3355970</v>
+        <v>3355674</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.990664640838345</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9865351039631215</v>
+        <v>0.9873287742674564</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9935908604561434</v>
+        <v>0.9935029853067906</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3297</v>
@@ -3700,19 +3700,19 @@
         <v>3498344</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3483236</v>
+        <v>3484821</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3508642</v>
+        <v>3509274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9904431386120013</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9861658003836854</v>
+        <v>0.986614546990166</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9933587002265111</v>
+        <v>0.9935374702229305</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6481</v>
@@ -3721,19 +3721,19 @@
         <v>6844431</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6827881</v>
+        <v>6825329</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6860203</v>
+        <v>6858895</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9905514136293908</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9881563127645984</v>
+        <v>0.9877868887045296</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9928339974565012</v>
+        <v>0.9926446715155155</v>
       </c>
     </row>
     <row r="15">
